--- a/docs/统计分析实验的方法设计.xlsx
+++ b/docs/统计分析实验的方法设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="3测试需求分析" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="80">
   <si>
     <t>实验名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,22 @@
   </si>
   <si>
     <t>文件个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周晓懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周晓懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周晓懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周晓懿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +385,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,11 +724,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -743,7 +759,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,7 +772,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -767,7 +783,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -778,7 +794,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -791,7 +807,7 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -804,7 +820,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -815,7 +831,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -826,7 +842,7 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -839,7 +855,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -852,7 +868,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -863,7 +879,7 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -874,7 +890,7 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -887,7 +903,7 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -900,7 +916,7 @@
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -911,7 +927,7 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -922,25 +938,75 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A3:A18"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="E11:E14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:H22"/>
+      <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,11 +1045,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1014,7 +1080,7 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1027,7 +1093,7 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -1038,7 +1104,7 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1049,7 +1115,7 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1060,7 +1126,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -1073,7 +1139,7 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1086,7 +1152,7 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1097,7 +1163,7 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1108,7 +1174,7 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1119,7 +1185,7 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1132,7 +1198,7 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1145,7 +1211,7 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1156,7 +1222,7 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1167,7 +1233,7 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1178,7 +1244,7 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1191,7 +1257,7 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1204,7 +1270,7 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1215,7 +1281,7 @@
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1226,7 +1292,7 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1237,25 +1303,86 @@
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A3:A22"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,11 +1421,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1329,7 +1456,7 @@
       <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1342,7 +1469,7 @@
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -1353,7 +1480,7 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1364,7 +1491,7 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1377,7 +1504,7 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1390,7 +1517,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1401,7 +1528,7 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1412,7 +1539,7 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1425,7 +1552,7 @@
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1438,7 +1565,7 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1449,7 +1576,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1460,7 +1587,7 @@
       <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1473,7 +1600,7 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1486,7 +1613,7 @@
       <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1497,7 +1624,7 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1508,11 +1635,67 @@
       <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A3:A18"/>
+  <mergeCells count="17">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
@@ -1521,12 +1704,6 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1563,11 +1740,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1598,7 +1775,7 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1611,7 +1788,7 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -1622,7 +1799,7 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -1633,7 +1810,7 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -1644,7 +1821,7 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
@@ -1657,7 +1834,7 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1670,7 +1847,7 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -1681,7 +1858,7 @@
       <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -1692,7 +1869,7 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -1703,7 +1880,7 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1716,7 +1893,7 @@
       <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1729,7 +1906,7 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -1740,7 +1917,7 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -1751,7 +1928,7 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -1762,7 +1939,7 @@
       <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
@@ -1775,7 +1952,7 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1788,7 +1965,7 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -1799,7 +1976,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -1810,7 +1987,7 @@
       <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -1821,11 +1998,78 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A3:A22"/>
+  <mergeCells count="17">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="B8:B12"/>
@@ -1834,12 +2078,6 @@
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
